--- a/xlsx/item.xlsx
+++ b/xlsx/item.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_projects\xlsxtools\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2202BC-2454-443D-A925-C18ED37BCB8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -13,17 +19,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">item!$A$1:$S$30</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,6 +367,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -687,16 +703,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,36 +726,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="31.625" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="64.5546875" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="7" max="8" width="13" customWidth="1"/>
-    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="9" max="10" width="12.44140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="18.375" customWidth="1"/>
-    <col min="16" max="16" width="36.125" customWidth="1"/>
-    <col min="17" max="17" width="28.625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="36.109375" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -798,7 +814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -857,7 +873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -916,7 +932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1100001</v>
       </c>
@@ -934,6 +950,18 @@
       </c>
       <c r="F4">
         <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -964,7 +992,7 @@
         <v>1100002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1100002</v>
       </c>
@@ -982,6 +1010,18 @@
       </c>
       <c r="F5">
         <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1012,7 +1052,7 @@
         <v>1100003</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1100003</v>
       </c>
@@ -1030,6 +1070,18 @@
       </c>
       <c r="F6">
         <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1060,7 +1112,7 @@
         <v>1100004</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1100004</v>
       </c>
@@ -1078,6 +1130,18 @@
       </c>
       <c r="F7">
         <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1108,7 +1172,7 @@
         <v>1100005</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1100005</v>
       </c>
@@ -1126,6 +1190,18 @@
       </c>
       <c r="F8">
         <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1156,7 +1232,7 @@
         <v>1100006</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1100006</v>
       </c>
@@ -1174,6 +1250,18 @@
       </c>
       <c r="F9">
         <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1204,7 +1292,7 @@
         <v>1100007</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1100007</v>
       </c>
@@ -1222,6 +1310,18 @@
       </c>
       <c r="F10">
         <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1252,7 +1352,7 @@
         <v>1100008</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1100008</v>
       </c>
@@ -1270,6 +1370,18 @@
       </c>
       <c r="F11">
         <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1300,7 +1412,7 @@
         <v>1100009</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1100009</v>
       </c>
@@ -1318,6 +1430,18 @@
       </c>
       <c r="F12">
         <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1348,7 +1472,7 @@
         <v>1100010</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1100010</v>
       </c>
@@ -1367,6 +1491,18 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
@@ -1395,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1100021</v>
       </c>
@@ -1413,6 +1549,18 @@
       </c>
       <c r="F14">
         <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1443,7 +1591,7 @@
         <v>1100022</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1100022</v>
       </c>
@@ -1461,6 +1609,18 @@
       </c>
       <c r="F15">
         <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1491,7 +1651,7 @@
         <v>1100023</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1100023</v>
       </c>
@@ -1509,6 +1669,18 @@
       </c>
       <c r="F16">
         <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1539,7 +1711,7 @@
         <v>1100024</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1100024</v>
       </c>
@@ -1557,6 +1729,18 @@
       </c>
       <c r="F17">
         <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1587,7 +1771,7 @@
         <v>1100025</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1100025</v>
       </c>
@@ -1605,6 +1789,18 @@
       </c>
       <c r="F18">
         <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1635,7 +1831,7 @@
         <v>1100026</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1100026</v>
       </c>
@@ -1653,6 +1849,18 @@
       </c>
       <c r="F19">
         <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1683,7 +1891,7 @@
         <v>1100027</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1100027</v>
       </c>
@@ -1701,6 +1909,18 @@
       </c>
       <c r="F20">
         <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1731,7 +1951,7 @@
         <v>1100028</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1100028</v>
       </c>
@@ -1749,6 +1969,18 @@
       </c>
       <c r="F21">
         <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1779,7 +2011,7 @@
         <v>1100029</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1100029</v>
       </c>
@@ -1797,6 +2029,18 @@
       </c>
       <c r="F22">
         <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1827,7 +2071,7 @@
         <v>1100030</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1100030</v>
       </c>
@@ -1846,6 +2090,18 @@
       <c r="F23">
         <v>1</v>
       </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
       <c r="K23">
         <v>1</v>
       </c>
@@ -1874,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1100041</v>
       </c>
@@ -1892,6 +2148,18 @@
       </c>
       <c r="F24">
         <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,7 +2190,7 @@
         <v>1100042</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1100042</v>
       </c>
@@ -1940,6 +2208,18 @@
       </c>
       <c r="F25">
         <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1970,7 +2250,7 @@
         <v>1100043</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1100043</v>
       </c>
@@ -1988,6 +2268,18 @@
       </c>
       <c r="F26">
         <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2018,7 +2310,7 @@
         <v>1100044</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1100044</v>
       </c>
@@ -2036,6 +2328,18 @@
       </c>
       <c r="F27">
         <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2066,7 +2370,7 @@
         <v>1100045</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1100045</v>
       </c>
@@ -2084,6 +2388,18 @@
       </c>
       <c r="F28">
         <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2114,7 +2430,7 @@
         <v>1100046</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1100046</v>
       </c>
@@ -2132,6 +2448,18 @@
       </c>
       <c r="F29">
         <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2162,7 +2490,7 @@
         <v>1100047</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1100047</v>
       </c>
@@ -2180,6 +2508,18 @@
       </c>
       <c r="F30">
         <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2211,11 +2551,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S30"/>
+  <autoFilter ref="A1:S30" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/item.xlsx
+++ b/xlsx/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_projects\xlsxtools\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2202BC-2454-443D-A925-C18ED37BCB8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BFBE2E-7CF9-42FC-9220-BE5A01CBAF24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,10 +730,10 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4:I30"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1614,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1674,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1854,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2094,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2153,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2273,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2513,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J30">
         <v>0</v>
